--- a/Buckups.xlsx
+++ b/Buckups.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="27-feb" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Tareas</t>
   </si>
@@ -34,13 +34,56 @@
   </si>
   <si>
     <t>Realizado</t>
+  </si>
+  <si>
+    <t>Contar Inventario - Dayana</t>
+  </si>
+  <si>
+    <t>Nevera Coca Cola</t>
+  </si>
+  <si>
+    <t>Autorización arqueo Inventario</t>
+  </si>
+  <si>
+    <t>Gestionar ubicación del local</t>
+  </si>
+  <si>
+    <t>flyer publicitarios</t>
+  </si>
+  <si>
+    <t>baae</t>
+  </si>
+  <si>
+    <t>prestamo</t>
+  </si>
+  <si>
+    <t>deacuadre</t>
+  </si>
+  <si>
+    <t>venta</t>
+  </si>
+  <si>
+    <t>nomina</t>
+  </si>
+  <si>
+    <t>transportes</t>
+  </si>
+  <si>
+    <t>vidrio</t>
+  </si>
+  <si>
+    <t>deayuno y otros</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,7 +92,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -57,15 +114,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -73,15 +154,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -140,15 +293,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>95252</xdr:rowOff>
+      <xdr:rowOff>188598</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>15583</xdr:rowOff>
+      <xdr:rowOff>1976</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -171,8 +324,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4286252"/>
-          <a:ext cx="6204857" cy="1253831"/>
+          <a:off x="1" y="4379598"/>
+          <a:ext cx="5810250" cy="1174092"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -190,7 +343,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>714027</xdr:colOff>
+      <xdr:colOff>414670</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>95316</xdr:rowOff>
     </xdr:to>
@@ -496,14 +649,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="I13:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="9" width="16" style="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="13" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I13" s="12">
+        <v>405000</v>
+      </c>
+      <c r="J13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I14" s="12">
+        <v>-7900</v>
+      </c>
+      <c r="J14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I15" s="12">
+        <v>-300000</v>
+      </c>
+      <c r="J15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I16" s="12">
+        <v>186000</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I17" s="12">
+        <v>-70000</v>
+      </c>
+      <c r="J17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I18" s="12">
+        <v>-40000</v>
+      </c>
+      <c r="J18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I19" s="12">
+        <v>-120000</v>
+      </c>
+      <c r="J19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I20" s="12">
+        <v>-10000</v>
+      </c>
+      <c r="J20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="9:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="12">
+        <f>+SUM(I1:I23)</f>
+        <v>43100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -511,28 +741,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="2.28515625" customWidth="1"/>
-    <col min="5" max="5" width="1.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="2.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="2.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.5703125" customWidth="1"/>
+    <col min="7" max="7" width="1.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="1.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8" t="s">
         <v>2</v>
+      </c>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Buckups.xlsx
+++ b/Buckups.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="27-feb" sheetId="1" r:id="rId1"/>
-    <sheet name="kanban" sheetId="2" r:id="rId2"/>
+    <sheet name="28-feb" sheetId="3" r:id="rId2"/>
+    <sheet name="kanban" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -81,7 +82,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -230,8 +231,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -379,6 +380,55 @@
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>515379</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>10244</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1" descr="Recorte de pantalla"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7373379" cy="5153744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -651,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="I13:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,6 +790,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
